--- a/PlcRobotManager.Ui/RobotConfig/plc1_labels.xlsx
+++ b/PlcRobotManager.Ui/RobotConfig/plc1_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrgyu\source\repos\PlcRobotManager\PlcRobotManager.Ui\RobotConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F5883-85E5-49CB-A973-3AD5DAAAE209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B327BC6C-0F97-4780-9BFB-058A1B485F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="86">
   <si>
     <t>Code</t>
   </si>
@@ -309,6 +309,9 @@
   <si>
     <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaiseValueEvent</t>
   </si>
 </sst>
 </file>
@@ -633,25 +636,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="25.875" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="24.75" customWidth="1"/>
-    <col min="11" max="11" width="21.125" customWidth="1"/>
+    <col min="6" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="25.875" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="24.75" customWidth="1"/>
+    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,25 +675,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -705,20 +712,23 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -734,20 +744,23 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -763,14 +776,17 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -786,14 +802,17 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -809,14 +828,17 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -832,14 +854,17 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -855,14 +880,17 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -878,14 +906,17 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -901,14 +932,17 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -924,14 +958,17 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -947,14 +984,17 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -962,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -970,14 +1010,17 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -996,14 +1039,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1022,14 +1068,17 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>24</v>
       </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1048,14 +1097,17 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>24</v>
       </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1071,14 +1123,17 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
         <v>83</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1094,14 +1149,17 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>83</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1117,14 +1175,17 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>83</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1140,14 +1201,17 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>78</v>
       </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1163,14 +1227,17 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>78</v>
       </c>
-      <c r="H21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1186,14 +1253,17 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>78</v>
       </c>
-      <c r="H22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1209,14 +1279,17 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>78</v>
       </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1232,14 +1305,17 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>78</v>
       </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1255,14 +1331,17 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
         <v>78</v>
       </c>
-      <c r="H25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1278,14 +1357,17 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
         <v>78</v>
       </c>
-      <c r="H26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1301,14 +1383,17 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
         <v>78</v>
       </c>
-      <c r="H27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1324,14 +1409,17 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>78</v>
       </c>
-      <c r="H28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1347,14 +1435,17 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>78</v>
       </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1370,14 +1461,17 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>78</v>
       </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1393,14 +1487,17 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
         <v>78</v>
       </c>
-      <c r="H31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1416,14 +1513,17 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>78</v>
       </c>
-      <c r="H32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1439,14 +1539,17 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
         <v>78</v>
       </c>
-      <c r="H33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1462,14 +1565,17 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
         <v>78</v>
       </c>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1485,14 +1591,17 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
         <v>78</v>
       </c>
-      <c r="H35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1508,14 +1617,17 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
         <v>78</v>
       </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1531,14 +1643,17 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
         <v>78</v>
       </c>
-      <c r="H37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1554,14 +1669,17 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>78</v>
       </c>
-      <c r="H38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1577,14 +1695,17 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
         <v>78</v>
       </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1600,14 +1721,14 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>79</v>
       </c>
-      <c r="H40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1623,14 +1744,14 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="H41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1646,14 +1767,14 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>79</v>
       </c>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1669,14 +1790,14 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>79</v>
       </c>
-      <c r="H43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1692,14 +1813,14 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>79</v>
       </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1715,14 +1836,14 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>79</v>
       </c>
-      <c r="H45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1738,14 +1859,14 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>79</v>
       </c>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1761,14 +1882,14 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>79</v>
       </c>
-      <c r="H47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -1784,14 +1905,14 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>79</v>
       </c>
-      <c r="H48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1807,14 +1928,14 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>79</v>
       </c>
-      <c r="H49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -1830,14 +1951,14 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>79</v>
       </c>
-      <c r="H50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -1853,14 +1974,14 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>79</v>
       </c>
-      <c r="H51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1876,14 +1997,14 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>79</v>
       </c>
-      <c r="H52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1899,14 +2020,14 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>79</v>
       </c>
-      <c r="H53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -1922,14 +2043,14 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>79</v>
       </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -1945,14 +2066,14 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>79</v>
       </c>
-      <c r="H55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -1968,14 +2089,14 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>79</v>
       </c>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -1991,14 +2112,14 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>79</v>
       </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2014,14 +2135,14 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>79</v>
       </c>
-      <c r="H58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2037,10 +2158,10 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>79</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>25</v>
       </c>
     </row>

--- a/PlcRobotManager.Ui/RobotConfig/plc1_labels.xlsx
+++ b/PlcRobotManager.Ui/RobotConfig/plc1_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrgyu\source\repos\PlcRobotManager\PlcRobotManager.Ui\RobotConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B327BC6C-0F97-4780-9BFB-058A1B485F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC71D3B-2EC8-4400-8614-901399634989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="91">
   <si>
     <t>Code</t>
   </si>
@@ -111,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cycle #1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cycle #2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CycleTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +304,31 @@
   </si>
   <si>
     <t>RaiseValueEvent</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>StartFlag</t>
+  </si>
+  <si>
+    <t>StartEndFlag</t>
+  </si>
+  <si>
+    <t>Cycle #4 StartEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle #3 Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle #2 Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle #1 CycleTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -640,7 +657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -722,10 +739,10 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -754,10 +771,10 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -970,7 +987,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -979,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -996,7 +1013,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1022,7 +1039,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1031,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1051,7 +1068,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1060,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1080,7 +1097,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1089,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1107,9 +1124,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1127,15 +1144,15 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1153,15 +1170,15 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1179,336 +1196,360 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>71</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
         <v>71</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
         <v>71</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
         <v>71</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
       </c>
       <c r="C28">
         <v>8</v>
       </c>
       <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
       </c>
       <c r="C31">
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
         <v>71</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1517,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
@@ -1525,16 +1566,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1543,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
@@ -1551,16 +1592,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1569,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s">
         <v>25</v>
@@ -1577,16 +1618,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1595,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
@@ -1603,16 +1644,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1621,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
         <v>25</v>
@@ -1629,16 +1670,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1647,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
         <v>25</v>
@@ -1655,16 +1696,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1673,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
         <v>25</v>
@@ -1681,16 +1722,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1699,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s">
         <v>25</v>
@@ -1707,22 +1748,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
         <v>25</v>
@@ -1730,22 +1771,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s">
         <v>25</v>
@@ -1753,22 +1794,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
         <v>25</v>
@@ -1776,22 +1817,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
         <v>25</v>
@@ -1799,22 +1840,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
         <v>25</v>
@@ -1822,22 +1863,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
         <v>25</v>
@@ -1845,22 +1886,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
         <v>25</v>
@@ -1868,22 +1909,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
         <v>25</v>
@@ -1891,22 +1932,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
         <v>25</v>
@@ -1914,22 +1955,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s">
         <v>25</v>
@@ -1937,22 +1978,22 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
         <v>25</v>
@@ -1960,22 +2001,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
@@ -1983,22 +2024,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52">
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -2006,22 +2047,22 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
@@ -2029,22 +2070,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2052,22 +2093,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55">
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2075,22 +2116,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2098,22 +2139,22 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57">
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2121,22 +2162,22 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -2144,22 +2185,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
